--- a/data/test_case/chat_test_cases.xlsx
+++ b/data/test_case/chat_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YiQiaUiTest\data\test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691E6CD5-4519-414A-99D2-DEEE3660F722}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58DF8C7-5315-454C-9AEE-606DA70DDFB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB9D2E94-9795-475E-97CB-A02DE17706D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="123">
   <si>
     <t>chat_cases_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,18 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证机器人三次未识别到答案能触发转人工操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证点转人工按钮能转人工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证输入转人工提示能转人工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>验证点击引导问题菜单能弹出对应问题答案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,6 +440,82 @@
   </si>
   <si>
     <t>{"prompt": "请用一句话描述您的问题，尽可能简短哦^^"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证机器人n次回复“未解决”展示转人工按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证机器人n次未识别答案展示转人工按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证输入包含转人工提示语能弹出转人工按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证机器人n次回复“未解决”自动转人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证机器人n次未识别答案自动转人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证输入转人工提示语能自动转人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证点击转人工按钮能转人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tomanual_type": 2, "v_msg": ["你是四川人吗", "你是四川人吗"], "sleep_time": 2, "humanbutton": "在线咨询", "humantip": "如您的问题未被解决，可进入", "greet_jq": "", "greet_manual": ""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tomanual_type": 1, "v_msg": ["发送消息手动转人工", "发送消息手动转人工"], "sleep_time": 2, "humanbutton": "在线咨询", "humantip": "如您的问题未被解决，可进入", "greet_jq": "", "greet_manual": ""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tomanual_type": 3, "v_msg": ["~~~~~~~~转人工提示~~~~~~~~"], "sleep_time": 2, "humanbutton": "在线咨询", "humantip": "如您的问题未被解决，可进入", "greet_jq": "", "greet_manual": ""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tomanual_type": 5, "v_msg": ["你是四川人吗", "你是四川人吗", "你是四川人吗"], "sleep_time": 2, "humanbutton": "在线咨询", "humantip": "如您的问题未被解决，可进入", "greet_jq": "抱歉，没能帮您及时解决问题，小洽已为您转接到人工客服", "greet_manual": "您好，请问有什么可以帮助到您？"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tomanual_type": 4, "v_msg": ["发消息自动转人工", "发消息自动转人工", "发消息自动转人工"], "sleep_time": 2, "humanbutton": "在线咨询", "humantip": "如您的问题未被解决，可进入", "greet_jq": "抱歉，没能帮您及时解决问题，小洽已为您转接到人工客服", "greet_manual": "您好，请问有什么可以帮助到您？"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tomanual_type": 6, "v_msg": ["转人工"], "sleep_time": 2, "humanbutton": "在线咨询", "humantip": "如您的问题未被解决，可进入", "greet_jq": "抱歉，没能帮您及时解决问题，小洽已为您转接到人工客服", "greet_manual": "您好，请问有什么可以帮助到您？"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tomanual_type": 7, "v_msg": ["~~~~~~~~转人工提示~~~~~~~~"], "sleep_time": 2, "humanbutton": "在线咨询", "humantip": "如您的问题未被解决，可进入", "greet_jq": "", "greet_manual": "您好，请问有什么可以帮助到您？"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证机器人可以不区分禁用词大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证禁用词再文本内部机器人能够识别到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sleep_time": 2, "v_msg": ["fuck", "FUCK", "Fuck"], "stop_word": "妈妈告诉不能说xx，您重新问吧！"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sleep_time": 2, "v_msg": ["wdnmd fuck 哈哈哈哈", "fuck 你是弱智吗？？？"], "stop_word": "妈妈告诉不能说xx，您重新问吧！"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F574071A-16FB-4075-AE0C-23A71D7EF9BC}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D57:D59"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1358,7 +1422,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1376,7 +1440,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1394,7 +1458,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1412,7 +1476,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1430,7 +1494,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1448,7 +1512,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1466,7 +1530,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1484,7 +1548,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1502,7 +1566,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1520,7 +1584,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1538,7 +1602,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1556,7 +1620,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -1574,7 +1638,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1589,7 +1653,7 @@
     </row>
     <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -1604,7 +1668,7 @@
     </row>
     <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1619,7 +1683,7 @@
     </row>
     <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1634,7 +1698,7 @@
     </row>
     <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1649,7 +1713,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1664,7 +1728,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1679,7 +1743,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1694,7 +1758,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1709,7 +1773,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1724,7 +1788,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1739,7 +1803,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -1753,6 +1817,9 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52" t="s">
         <v>77</v>
       </c>
@@ -1760,18 +1827,30 @@
         <v>78</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
       <c r="C54" t="s">
         <v>78</v>
       </c>
@@ -1779,10 +1858,16 @@
         <v>79</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
       <c r="C55" t="s">
         <v>78</v>
       </c>
@@ -1791,14 +1876,26 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
       <c r="C56" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
       <c r="C57" t="s">
         <v>78</v>
       </c>
@@ -1807,6 +1904,12 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
       <c r="C58" t="s">
         <v>78</v>
       </c>
@@ -1815,6 +1918,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
       <c r="C59" t="s">
         <v>78</v>
       </c>
@@ -1823,6 +1932,12 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
       <c r="C60" t="s">
         <v>88</v>
       </c>
@@ -1831,6 +1946,12 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
       <c r="C61" t="s">
         <v>89</v>
       </c>
@@ -1839,6 +1960,12 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -1847,14 +1974,26 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
       <c r="C63" t="s">
         <v>89</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
       <c r="C64" t="s">
         <v>90</v>
       </c>
@@ -1862,7 +2001,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
       <c r="C65" t="s">
         <v>91</v>
       </c>
@@ -1870,15 +2015,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
       <c r="C66" t="s">
         <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
       <c r="C67" t="s">
         <v>89</v>
       </c>
@@ -1886,7 +2043,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
       <c r="C68" t="s">
         <v>89</v>
       </c>
@@ -1894,7 +2057,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
       <c r="C69" t="s">
         <v>89</v>
       </c>
@@ -1902,37 +2071,166 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
       <c r="C70" t="s">
         <v>96</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
       <c r="C71" t="s">
         <v>96</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
       <c r="C72" t="s">
         <v>96</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D77" s="1" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="1" t="s">
         <v>12</v>
       </c>
     </row>
